--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.671451198793511</v>
+        <v>1.125230333333333</v>
       </c>
       <c r="H2">
-        <v>0.671451198793511</v>
+        <v>3.375691</v>
       </c>
       <c r="I2">
-        <v>0.006674085372425133</v>
+        <v>0.01107971898262852</v>
       </c>
       <c r="J2">
-        <v>0.006674085372425133</v>
+        <v>0.01107971898262852</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N2">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P2">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q2">
-        <v>14.55617436951621</v>
+        <v>26.55118324616022</v>
       </c>
       <c r="R2">
-        <v>14.55617436951621</v>
+        <v>238.960649215442</v>
       </c>
       <c r="S2">
-        <v>0.004584871229086812</v>
+        <v>0.007752178355918786</v>
       </c>
       <c r="T2">
-        <v>0.004584871229086812</v>
+        <v>0.007752178355918784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.671451198793511</v>
+        <v>1.125230333333333</v>
       </c>
       <c r="H3">
-        <v>0.671451198793511</v>
+        <v>3.375691</v>
       </c>
       <c r="I3">
-        <v>0.006674085372425133</v>
+        <v>0.01107971898262852</v>
       </c>
       <c r="J3">
-        <v>0.006674085372425133</v>
+        <v>0.01107971898262852</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N3">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P3">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q3">
-        <v>5.074515346192762</v>
+        <v>8.752070413578556</v>
       </c>
       <c r="R3">
-        <v>5.074515346192762</v>
+        <v>78.768633722207</v>
       </c>
       <c r="S3">
-        <v>0.001598359487987637</v>
+        <v>0.002555351684352253</v>
       </c>
       <c r="T3">
-        <v>0.001598359487987637</v>
+        <v>0.002555351684352253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.671451198793511</v>
+        <v>1.125230333333333</v>
       </c>
       <c r="H4">
-        <v>0.671451198793511</v>
+        <v>3.375691</v>
       </c>
       <c r="I4">
-        <v>0.006674085372425133</v>
+        <v>0.01107971898262852</v>
       </c>
       <c r="J4">
-        <v>0.006674085372425133</v>
+        <v>0.01107971898262852</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N4">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P4">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q4">
-        <v>1.558378762754574</v>
+        <v>2.644744376080889</v>
       </c>
       <c r="R4">
-        <v>1.558378762754574</v>
+        <v>23.802699384728</v>
       </c>
       <c r="S4">
-        <v>0.0004908546553506844</v>
+        <v>0.0007721889423574838</v>
       </c>
       <c r="T4">
-        <v>0.0004908546553506844</v>
+        <v>0.0007721889423574835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.48192518290411</v>
+        <v>85.94020333333333</v>
       </c>
       <c r="H5">
-        <v>85.48192518290411</v>
+        <v>257.82061</v>
       </c>
       <c r="I5">
-        <v>0.8496725711341055</v>
+        <v>0.8462207905669875</v>
       </c>
       <c r="J5">
-        <v>0.8496725711341055</v>
+        <v>0.8462207905669875</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N5">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P5">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q5">
-        <v>1853.135135718096</v>
+        <v>2027.864001991536</v>
       </c>
       <c r="R5">
-        <v>1853.135135718096</v>
+        <v>18250.77601792382</v>
       </c>
       <c r="S5">
-        <v>0.5836963581005912</v>
+        <v>0.5920776968483721</v>
       </c>
       <c r="T5">
-        <v>0.5836963581005912</v>
+        <v>0.5920776968483721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.48192518290411</v>
+        <v>85.94020333333333</v>
       </c>
       <c r="H6">
-        <v>85.48192518290411</v>
+        <v>257.82061</v>
       </c>
       <c r="I6">
-        <v>0.8496725711341055</v>
+        <v>0.8462207905669875</v>
       </c>
       <c r="J6">
-        <v>0.8496725711341055</v>
+        <v>0.8462207905669875</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N6">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P6">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q6">
-        <v>646.032566390796</v>
+        <v>668.4451073252189</v>
       </c>
       <c r="R6">
-        <v>646.032566390796</v>
+        <v>6016.00596592697</v>
       </c>
       <c r="S6">
-        <v>0.2034858920693679</v>
+        <v>0.1951666577374011</v>
       </c>
       <c r="T6">
-        <v>0.2034858920693679</v>
+        <v>0.1951666577374011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.48192518290411</v>
+        <v>85.94020333333333</v>
       </c>
       <c r="H7">
-        <v>85.48192518290411</v>
+        <v>257.82061</v>
       </c>
       <c r="I7">
-        <v>0.8496725711341055</v>
+        <v>0.8462207905669875</v>
       </c>
       <c r="J7">
-        <v>0.8496725711341055</v>
+        <v>0.8462207905669875</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N7">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P7">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q7">
-        <v>198.3959773156645</v>
+        <v>201.9940830885423</v>
       </c>
       <c r="R7">
-        <v>198.3959773156645</v>
+        <v>1817.94674779688</v>
       </c>
       <c r="S7">
-        <v>0.06249032096414641</v>
+        <v>0.05897643598121429</v>
       </c>
       <c r="T7">
-        <v>0.06249032096414641</v>
+        <v>0.05897643598121429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.452348796422</v>
+        <v>14.49222633333333</v>
       </c>
       <c r="H8">
-        <v>14.452348796422</v>
+        <v>43.476679</v>
       </c>
       <c r="I8">
-        <v>0.1436533434934694</v>
+        <v>0.1426994904503839</v>
       </c>
       <c r="J8">
-        <v>0.1436533434934694</v>
+        <v>0.1426994904503839</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.6786780568287</v>
+        <v>23.59622066666667</v>
       </c>
       <c r="N8">
-        <v>21.6786780568287</v>
+        <v>70.788662</v>
       </c>
       <c r="O8">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="P8">
-        <v>0.6869662243203861</v>
+        <v>0.6996728317814862</v>
       </c>
       <c r="Q8">
-        <v>313.3078167226283</v>
+        <v>341.9617705126109</v>
       </c>
       <c r="R8">
-        <v>313.3078167226283</v>
+        <v>3077.655934613498</v>
       </c>
       <c r="S8">
-        <v>0.09868499499070818</v>
+        <v>0.09984295657719523</v>
       </c>
       <c r="T8">
-        <v>0.09868499499070818</v>
+        <v>0.09984295657719523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.452348796422</v>
+        <v>14.49222633333333</v>
       </c>
       <c r="H9">
-        <v>14.452348796422</v>
+        <v>43.476679</v>
       </c>
       <c r="I9">
-        <v>0.1436533434934694</v>
+        <v>0.1426994904503839</v>
       </c>
       <c r="J9">
-        <v>0.1436533434934694</v>
+        <v>0.1426994904503839</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.55753412207893</v>
+        <v>7.778025666666667</v>
       </c>
       <c r="N9">
-        <v>7.55753412207893</v>
+        <v>23.334077</v>
       </c>
       <c r="O9">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="P9">
-        <v>0.239487420192656</v>
+        <v>0.2306332577891816</v>
       </c>
       <c r="Q9">
-        <v>109.2241191731456</v>
+        <v>112.7209083878092</v>
       </c>
       <c r="R9">
-        <v>109.2241191731456</v>
+        <v>1014.488175490283</v>
       </c>
       <c r="S9">
-        <v>0.03440316863530045</v>
+        <v>0.03291124836742825</v>
       </c>
       <c r="T9">
-        <v>0.03440316863530045</v>
+        <v>0.03291124836742825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.452348796422</v>
+        <v>14.49222633333333</v>
       </c>
       <c r="H10">
-        <v>14.452348796422</v>
+        <v>43.476679</v>
       </c>
       <c r="I10">
-        <v>0.1436533434934694</v>
+        <v>0.1426994904503839</v>
       </c>
       <c r="J10">
-        <v>0.1436533434934694</v>
+        <v>0.1426994904503839</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.32091143117285</v>
+        <v>2.350402666666667</v>
       </c>
       <c r="N10">
-        <v>2.32091143117285</v>
+        <v>7.051208000000001</v>
       </c>
       <c r="O10">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="P10">
-        <v>0.07354635548695786</v>
+        <v>0.06969391042933218</v>
       </c>
       <c r="Q10">
-        <v>33.542621528913</v>
+        <v>34.06256741980356</v>
       </c>
       <c r="R10">
-        <v>33.542621528913</v>
+        <v>306.563106778232</v>
       </c>
       <c r="S10">
-        <v>0.01056517986746076</v>
+        <v>0.009945285505760397</v>
       </c>
       <c r="T10">
-        <v>0.01056517986746076</v>
+        <v>0.009945285505760397</v>
       </c>
     </row>
   </sheetData>
